--- a/biology/Biologie cellulaire et moléculaire/Coactivateur_transcriptionnel/Coactivateur_transcriptionnel.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Coactivateur_transcriptionnel/Coactivateur_transcriptionnel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les coactivateurs sont :
 des protéines qui ont une activité histone acétylase ce qui permet de décondenser les nucléosomes localement (ex : SRC-1 ou CBP). Cette activité permet le déroulement de l'ADN et donc permet à la chromatine d'être active.
@@ -515,7 +527,9 @@
           <t>Exemple</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est le cas en particulier de l'Insuline : le gène codant son précurseur étant présent dans l'ADN génomique de toutes les cellules humaines pourtant, seules les cellules Béta des îlots de Langherans au niveau du pancréas en produisent. 
 Cela est dû au fait que seules ces dernières sont hypométhylées, et que toutes les autres cellules ne produisant pas cette protéines sont hyperméthylées 
